--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W15_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5551948051948052</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4761904761904762</v>
-      </c>
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9395604395604396</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06802721088435375</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5501519756838906</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6979591836734694</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4407294832826747</v>
+        <v>0.513677811550152</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1733223545149753</v>
+        <v>0.1406912873826436</v>
       </c>
       <c r="J2" t="n">
-        <v>2384.382756825788</v>
+        <v>1817.987445321714</v>
       </c>
       <c r="K2" t="n">
-        <v>8644965.067453414</v>
+        <v>4202937.130763776</v>
       </c>
       <c r="L2" t="n">
-        <v>2940.232145163612</v>
+        <v>2050.106614487104</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.6254427129856286</v>
+        <v>0.209755796694141</v>
       </c>
     </row>
   </sheetData>
